--- a/bd_student_local/gen_xls.xlsx
+++ b/bd_student_local/gen_xls.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>НПП</t>
   </si>
@@ -44,13 +44,13 @@
     <t>ФИО преподавателя</t>
   </si>
   <si>
-    <t>Иванов Иван Иванович</t>
+    <t>Колунов Иван Владимирович</t>
   </si>
   <si>
     <t>ФИРТ</t>
   </si>
   <si>
-    <t>ПИ-321</t>
+    <t>ПИ-421</t>
   </si>
   <si>
     <t>2021-12-15</t>
@@ -69,24 +69,6 @@
   </si>
   <si>
     <t>Круглова Дарья Ивановна</t>
-  </si>
-  <si>
-    <t>Вишнева Марина Николаевна</t>
-  </si>
-  <si>
-    <t>ИНЭК</t>
-  </si>
-  <si>
-    <t>ПИ-322</t>
-  </si>
-  <si>
-    <t>2021-12-22</t>
-  </si>
-  <si>
-    <t>Английский</t>
-  </si>
-  <si>
-    <t>Макарова Галина Сергеевна</t>
   </si>
 </sst>
 </file>
@@ -425,7 +407,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,35 +513,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>123453</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/bd_student_local/gen_xls.xlsx
+++ b/bd_student_local/gen_xls.xlsx
@@ -44,25 +44,25 @@
     <t>ФИО преподавателя</t>
   </si>
   <si>
-    <t>Колунов Иван Владимирович</t>
+    <t>Вишнева Марина Николаевна</t>
   </si>
   <si>
     <t>ФИРТ</t>
   </si>
   <si>
-    <t>ПИ-421</t>
-  </si>
-  <si>
-    <t>2021-12-15</t>
-  </si>
-  <si>
-    <t>База данных</t>
-  </si>
-  <si>
-    <t>Дмитров Дмитрий Дмитрович</t>
-  </si>
-  <si>
-    <t>2021-12-11</t>
+    <t>ПИ-322</t>
+  </si>
+  <si>
+    <t>11.12.2021</t>
+  </si>
+  <si>
+    <t>Английский</t>
+  </si>
+  <si>
+    <t>Макарова Галина Сергеевна</t>
+  </si>
+  <si>
+    <t>01.01.2022</t>
   </si>
   <si>
     <t>Математика</t>
@@ -469,7 +469,7 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>123451</v>
+        <v>123455</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -478,7 +478,7 @@
         <v>13</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -498,7 +498,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>123451</v>
+        <v>123455</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -507,7 +507,7 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
